--- a/config_3.23/game_enter_btn_config.xlsx
+++ b/config_3.23/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="384">
   <si>
     <t>id|行号</t>
   </si>
@@ -1697,6 +1697,22 @@
   </si>
   <si>
     <t>128#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sgxxl_tower_climbing",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>129#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3408,13 +3424,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
+      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5682,9 +5698,29 @@
         <v>378</v>
       </c>
       <c r="E129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F129" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>309</v>
+      </c>
+      <c r="E130">
+        <v>129</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5767,10 +5803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5835,6 +5871,17 @@
         <v>241</v>
       </c>
       <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
